--- a/data/ECvotes.xlsx
+++ b/data/ECvotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LK296/Documents/Research/Electoral College Distortion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LK296/Documents/Research/Electoral College Distortion/EC-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3C3FB-8CE7-F042-AAB9-B36DB9E3ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113EF47-72F9-2B44-9415-C3024F2B701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>State</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>NE-3</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -573,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC01BA9D-594B-3F4B-AA5E-F7396178F8CB}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,10 +597,10 @@
     <col min="10" max="11" width="5.1640625" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,8 +649,11 @@
       <c r="P1" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,8 +702,11 @@
       <c r="P2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,8 +755,11 @@
       <c r="P3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,8 +808,11 @@
       <c r="P4" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -846,8 +861,11 @@
       <c r="P5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -896,8 +914,11 @@
       <c r="P6" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -946,8 +967,11 @@
       <c r="P7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1020,11 @@
       <c r="P8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -1046,8 +1073,11 @@
       <c r="P9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +1126,11 @@
       <c r="P10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1179,11 @@
       <c r="P11" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1232,11 @@
       <c r="P12" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1246,8 +1285,11 @@
       <c r="P13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1296,8 +1338,11 @@
       <c r="P14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1391,11 @@
       <c r="P15" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,8 +1444,11 @@
       <c r="P16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1446,8 +1497,11 @@
       <c r="P17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1496,8 +1550,11 @@
       <c r="P18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1546,8 +1603,11 @@
       <c r="P19" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1596,8 +1656,11 @@
       <c r="P20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1646,8 +1709,11 @@
       <c r="P21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1696,8 +1762,11 @@
       <c r="P22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1746,8 +1815,11 @@
       <c r="P23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1796,8 +1868,11 @@
       <c r="P24" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1846,8 +1921,11 @@
       <c r="P25" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1896,8 +1974,11 @@
       <c r="P26" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1946,8 +2027,11 @@
       <c r="P27" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2080,11 @@
       <c r="P28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2046,8 +2133,11 @@
       <c r="P29" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2096,8 +2186,11 @@
       <c r="P30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2146,8 +2239,11 @@
       <c r="P31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2196,8 +2292,11 @@
       <c r="P32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -2246,8 +2345,11 @@
       <c r="P33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -2296,8 +2398,11 @@
       <c r="P34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2346,8 +2451,11 @@
       <c r="P35" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2396,8 +2504,11 @@
       <c r="P36" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2446,8 +2557,11 @@
       <c r="P37" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -2496,8 +2610,11 @@
       <c r="P38" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2663,11 @@
       <c r="P39" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -2596,8 +2716,11 @@
       <c r="P40" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -2646,8 +2769,11 @@
       <c r="P41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -2696,8 +2822,11 @@
       <c r="P42" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -2746,8 +2875,11 @@
       <c r="P43" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -2796,8 +2928,11 @@
       <c r="P44" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2846,8 +2981,11 @@
       <c r="P45" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -2896,8 +3034,11 @@
       <c r="P46" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2946,8 +3087,11 @@
       <c r="P47" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -2996,8 +3140,11 @@
       <c r="P48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3193,11 @@
       <c r="P49" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -3096,8 +3246,11 @@
       <c r="P50" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -3146,8 +3299,11 @@
       <c r="P51" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -3196,8 +3352,11 @@
       <c r="P52" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -3246,8 +3405,11 @@
       <c r="P53" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
@@ -3296,8 +3458,11 @@
       <c r="P54" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -3346,8 +3511,11 @@
       <c r="P55" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -3396,8 +3564,11 @@
       <c r="P56" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
@@ -3445,6 +3616,62 @@
       </c>
       <c r="P57" s="2">
         <v>3</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ECvotes.xlsx
+++ b/data/ECvotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LK296/Documents/Research/Electoral College Distortion/EC-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leekennedyshaffer/Documents/Research/Electoral College Distortion/EC-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113EF47-72F9-2B44-9415-C3024F2B701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A150D7E-74FA-464B-B62F-9E0D3B982B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16680" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="3" r:id="rId1"/>
@@ -189,25 +189,25 @@
     <t>WY</t>
   </si>
   <si>
-    <t>ME-1</t>
-  </si>
-  <si>
-    <t>ME-2</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
-    <t>NE-1</t>
-  </si>
-  <si>
-    <t>NE-2</t>
-  </si>
-  <si>
-    <t>NE-3</t>
-  </si>
-  <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t>ME01</t>
+  </si>
+  <si>
+    <t>ME02</t>
+  </si>
+  <si>
+    <t>NE01</t>
+  </si>
+  <si>
+    <t>NE02</t>
+  </si>
+  <si>
+    <t>NE03</t>
   </si>
 </sst>
 </file>
@@ -579,10 +579,10 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
